--- a/华为云/堡垒机.xlsx
+++ b/华为云/堡垒机.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -859,7 +860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
